--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H2">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I2">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J2">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N2">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q2">
-        <v>1332.134110617391</v>
+        <v>1871.70102629658</v>
       </c>
       <c r="R2">
-        <v>1332.134110617391</v>
+        <v>16845.30923666922</v>
       </c>
       <c r="S2">
-        <v>0.2756164263488142</v>
+        <v>0.3129619695100271</v>
       </c>
       <c r="T2">
-        <v>0.2756164263488142</v>
+        <v>0.3129619695100271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H3">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I3">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J3">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N3">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q3">
-        <v>133.8698318086889</v>
+        <v>179.7999297332067</v>
       </c>
       <c r="R3">
-        <v>133.8698318086889</v>
+        <v>1618.19936759886</v>
       </c>
       <c r="S3">
-        <v>0.02769745504221605</v>
+        <v>0.03006385065589664</v>
       </c>
       <c r="T3">
-        <v>0.02769745504221605</v>
+        <v>0.03006385065589664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H4">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I4">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J4">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N4">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q4">
-        <v>581.1879681792537</v>
+        <v>867.3576277509327</v>
       </c>
       <c r="R4">
-        <v>581.1879681792537</v>
+        <v>7806.218649758394</v>
       </c>
       <c r="S4">
-        <v>0.1202468651990714</v>
+        <v>0.1450284781793267</v>
       </c>
       <c r="T4">
-        <v>0.1202468651990714</v>
+        <v>0.1450284781793267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H5">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I5">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J5">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N5">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q5">
-        <v>1214.056000093511</v>
+        <v>1299.741773604192</v>
       </c>
       <c r="R5">
-        <v>1214.056000093511</v>
+        <v>11697.67596243773</v>
       </c>
       <c r="S5">
-        <v>0.2511862532954952</v>
+        <v>0.2173262393975785</v>
       </c>
       <c r="T5">
-        <v>0.2511862532954952</v>
+        <v>0.2173262393975784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H6">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I6">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J6">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N6">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q6">
-        <v>122.0038367334681</v>
+        <v>124.8562010075627</v>
       </c>
       <c r="R6">
-        <v>122.0038367334681</v>
+        <v>1123.705809068064</v>
       </c>
       <c r="S6">
-        <v>0.02524239955520562</v>
+        <v>0.02087686122082352</v>
       </c>
       <c r="T6">
-        <v>0.02524239955520562</v>
+        <v>0.02087686122082352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H7">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I7">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J7">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N7">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q7">
-        <v>529.672451389421</v>
+        <v>602.3082349175833</v>
       </c>
       <c r="R7">
-        <v>529.672451389421</v>
+        <v>5420.774114258249</v>
       </c>
       <c r="S7">
-        <v>0.1095883868026691</v>
+        <v>0.1007102997773568</v>
       </c>
       <c r="T7">
-        <v>0.1095883868026691</v>
+        <v>0.1007102997773568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H8">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I8">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J8">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N8">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q8">
-        <v>598.8938503072225</v>
+        <v>663.583410589716</v>
       </c>
       <c r="R8">
-        <v>598.8938503072225</v>
+        <v>5972.250695307443</v>
       </c>
       <c r="S8">
-        <v>0.1239101840185275</v>
+        <v>0.1109559530045539</v>
       </c>
       <c r="T8">
-        <v>0.1239101840185275</v>
+        <v>0.1109559530045538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H9">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I9">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J9">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N9">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q9">
-        <v>60.18449521927533</v>
+        <v>63.74535725517466</v>
       </c>
       <c r="R9">
-        <v>60.18449521927533</v>
+        <v>573.708215296572</v>
       </c>
       <c r="S9">
-        <v>0.01245207622996468</v>
+        <v>0.01065868548096773</v>
       </c>
       <c r="T9">
-        <v>0.01245207622996468</v>
+        <v>0.01065868548096773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H10">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I10">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J10">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N10">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q10">
-        <v>261.2874313786532</v>
+        <v>307.5085842971421</v>
       </c>
       <c r="R10">
-        <v>261.2874313786532</v>
+        <v>2767.577258674279</v>
       </c>
       <c r="S10">
-        <v>0.05405995350803627</v>
+        <v>0.05141766277346923</v>
       </c>
       <c r="T10">
-        <v>0.05405995350803627</v>
+        <v>0.05141766277346922</v>
       </c>
     </row>
   </sheetData>
